--- a/Ventas_empleados.xlsx
+++ b/Ventas_empleados.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Desktop\UDB\Datawarehouse y Minería de datos\Proyecto_ETL_TB181979\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082A4B8-CB2B-4D79-987E-319BC6D411C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$E$1:$E$11</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}"/>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>DUI</t>
   </si>
@@ -43,6 +51,111 @@
   </si>
   <si>
     <t>CODIGO EMPLEADO</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0127859-5</t>
+  </si>
+  <si>
+    <t>0641140877-193</t>
+  </si>
+  <si>
+    <t>Hernandez Ramirez</t>
+  </si>
+  <si>
+    <t>Carlos Roberto</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1294587-6</t>
+  </si>
+  <si>
+    <t>7894120652-147</t>
+  </si>
+  <si>
+    <t>Perez Hernandez</t>
+  </si>
+  <si>
+    <t>Maria Leticia</t>
+  </si>
+  <si>
+    <t>1716.50</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4589785-8</t>
+  </si>
+  <si>
+    <t>2365110578-145</t>
+  </si>
+  <si>
+    <t>Carranza</t>
+  </si>
+  <si>
+    <t>Pablo Jose</t>
+  </si>
+  <si>
+    <t>1900.40</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6985847-8</t>
+  </si>
+  <si>
+    <t>4758121280-193</t>
+  </si>
+  <si>
+    <t>Pastori</t>
+  </si>
+  <si>
+    <t>Xavier Iñaki</t>
+  </si>
+  <si>
+    <t>1912.80</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9658745-7</t>
+  </si>
+  <si>
+    <t>3658090976-145</t>
+  </si>
+  <si>
+    <t>Rodriguez Arias</t>
+  </si>
+  <si>
+    <t>Christian Alberto</t>
+  </si>
+  <si>
+    <t>1915.00</t>
+  </si>
+  <si>
+    <t>2032.23</t>
+  </si>
+  <si>
+    <t>2059.72</t>
+  </si>
+  <si>
+    <t>2125.10</t>
+  </si>
+  <si>
+    <t>2238.50</t>
+  </si>
+  <si>
+    <t>2922.74</t>
   </si>
 </sst>
 </file>
@@ -113,9 +226,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -432,19 +548,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:6" outlineLevel="0" r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -464,327 +584,208 @@
         <v>4</v>
       </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>0127859-5</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>0641140877-193</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>Hernandez Ramirez</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>Carlos Roberto</t>
-        </is>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>1700.00</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>1294587-6</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>7894120652-147</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>Perez Hernandez</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Maria Leticia</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>1716.50</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>4589785-8</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>2365110578-145</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Carranza</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>Pablo Jose</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>1900.40</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>6985847-8</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>4758121280-193</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Pastori</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>Xavier Iñaki</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>1912.80</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>9658745-7</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>3658090976-145</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Rodriguez Arias</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>Christian Alberto</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>1915.00</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>0127859-5</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>0641140877-193</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Hernandez Ramirez</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>Carlos Roberto</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>1700.00</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>1294587-6</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>7894120652-147</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Perez Hernandez</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>Maria Leticia</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>1716.50</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>4589785-8</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>2365110578-145</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Carranza</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>Pablo Jose</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>1900.40</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>6985847-8</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>4758121280-193</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Pastori</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>Xavier Iñaki</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>1912.80</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>9658745-7</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>3658090976-145</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Rodriguez Arias</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>Christian Alberto</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>1915.00</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E11" xr:uid="{19D45A24-AC2D-4E9B-B078-4DE4E8810630}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>